--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D521857-6027-42F4-AA5A-9B0BAE34A721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05796DF5-122B-441A-8278-4FDD14920B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
+    <sheet name="EmployeeService" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>作成者</t>
   </si>
@@ -136,63 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>insert(Department department)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次のデータを持つ部署オブジェクトがデータベースに登録できること
-部門ID: 5
-部門名: システム開発部</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツギノ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">ブモン </t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t xml:space="preserve">ブモンメイ </t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t xml:space="preserve">カイハツ </t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">ブ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの部署テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当該メソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">トウガイ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データベースの部署テーブルのレコードが全件取得できること</t>
     <rPh sb="7" eb="9">
       <t xml:space="preserve">ブショ </t>
@@ -237,8 +180,93 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>addCustomer(
+    <t>getEmployeeList()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドの実行</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EmployeeRepositoryのselectAllから得られたList&lt;Employee&gt;をList&lt;FormEmployee&gt;に変換して返していること</t>
+    <rPh sb="30" eb="31">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>employeeLogin(
+empAccountName:String, 
+password:String)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trueを返すこと</t>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の引数でメソッドを実行
+empAccountName: admin
+password: admin</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の引数でメソッドを実行
+empAccountName: admin1
+password: admin</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>falseを返すこと</t>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>addEmployee(
 FormCustomer formCustomer)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のデータを持つ部門オブジェクトが社員テーブルに登録できること
+id:</t>
+    <rPh sb="17" eb="19">
+      <t>シャイン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -410,7 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,8 +479,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -478,9 +509,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -495,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -849,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -879,7 +904,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -892,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
@@ -910,7 +935,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -956,20 +981,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -979,105 +1004,141 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>24</v>
+      <c r="B5" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="42" customHeight="1">
+    <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
+      <c r="B7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" ht="42" customHeight="1">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05796DF5-122B-441A-8278-4FDD14920B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66AB08-5987-4698-9C8F-FB6D16D31534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeService" sheetId="166" r:id="rId1"/>
+    <sheet name="CustomerService" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>作成者</t>
   </si>
@@ -136,15 +136,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースの部署テーブルのレコードが全件取得できること</t>
+    <t>次のデータを持つ部署オブジェクトがデータベースに登録できること
+部門ID: 5
+部門名: システム開発部</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツギノ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ブショ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ブモン </t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t xml:space="preserve">ブモンメイ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">カイハツ </t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">ブ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの部署テーブルに左記のデータのレコードが登録されていること</t>
     <rPh sb="7" eb="9">
       <t xml:space="preserve">ブショ </t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ゼンケン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シュトク </t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">サキ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">トウロク </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -180,92 +210,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>getEmployeeList()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当該メソッドの実行</t>
-    <rPh sb="0" eb="2">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <t>customerLogin(
+mailAddress:String, 
+password:String)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>addEmployee(
+FormEmployeeRegister formEmployeeRegister)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のデータを持つ部門オブジェクトが顧客テーブルに登録できること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の引数でメソッドを実行
+fromEmployeeRegister{
+id:
+name
+}</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EmployeeRepositoryのselectAllから得られたList&lt;Employee&gt;をList&lt;FormEmployee&gt;に変換して返していること</t>
-    <rPh sb="30" eb="31">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>employeeLogin(
-empAccountName:String, 
-password:String)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>trueを返すこと</t>
-    <rPh sb="5" eb="6">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下の引数でメソッドを実行
-empAccountName: admin
-password: admin</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下の引数でメソッドを実行
-empAccountName: admin1
-password: admin</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>falseを返すこと</t>
-    <rPh sb="6" eb="7">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>addEmployee(
-FormCustomer formCustomer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次のデータを持つ部門オブジェクトが社員テーブルに登録できること
-id:</t>
-    <rPh sb="17" eb="19">
-      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -438,7 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -874,9 +849,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -894,56 +869,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1014,17 +989,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1041,17 +1016,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1063,82 +1038,46 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="60" customHeight="1">
+    <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" ht="42" customHeight="1">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66AB08-5987-4698-9C8F-FB6D16D31534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EC4E8-B9A3-4519-951D-FB8E69A41A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,11 +216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>addEmployee(
-FormEmployeeRegister formEmployeeRegister)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>次のデータを持つ部門オブジェクトが顧客テーブルに登録できること</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -239,6 +234,11 @@
     <rPh sb="10" eb="12">
       <t>ジッコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>addCustomer(
+FormEmployeeRegister formEmployeeRegister)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -457,10 +457,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,15 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -869,25 +869,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,23 +902,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -956,20 +956,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -979,37 +979,37 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1018,49 +1018,57 @@
       <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1070,14 +1078,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EC4E8-B9A3-4519-951D-FB8E69A41A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15A833-87E4-4543-9FD5-454838156143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,49 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>次のデータを持つ部署オブジェクトがデータベースに登録できること
-部門ID: 5
-部門名: システム開発部</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツギノ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">ブモン </t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t xml:space="preserve">ブモンメイ </t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t xml:space="preserve">カイハツ </t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">ブ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの部署テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>古市</t>
     <rPh sb="0" eb="2">
       <t>フルイチ</t>
@@ -216,14 +173,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>次のデータを持つ部門オブジェクトが顧客テーブルに登録できること</t>
+    <t>addCustomer(
+FormEmployeeRegister formEmployeeRegister)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>次の引数でメソッドを実行
 fromEmployeeRegister{
-id:
-name
+id:null
+name: "山田太郎"
 }</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
@@ -234,11 +192,38 @@
     <rPh sb="10" eb="12">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>addCustomer(
-FormEmployeeRegister formEmployeeRegister)</t>
+    <rPh sb="50" eb="54">
+      <t>ヤマダタロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のデータを持つ顧客オブジェクトが顧客テーブルに登録できること</t>
+    <rPh sb="8" eb="10">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の引数でメソッドを実行
+mailAddress:yamada@example.com
+password:passya,ada</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返されたbooleanがtrueになっていること</t>
+    <rPh sb="0" eb="1">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -457,47 +442,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -851,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -869,56 +854,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -956,20 +941,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -979,96 +964,88 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1078,6 +1055,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15A833-87E4-4543-9FD5-454838156143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69FD948-F372-4FF0-92FA-016BB1C15CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>service/CustomerService.java</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -223,6 +219,13 @@
     <t>返されたbooleanがtrueになっていること</t>
     <rPh sb="0" eb="1">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -442,10 +445,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,15 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -849,30 +852,31 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,27 +887,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -941,20 +945,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -964,88 +968,96 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="42" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1055,14 +1067,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69FD948-F372-4FF0-92FA-016BB1C15CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF27649-5EC1-4EA6-93F6-905BEF73BDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>作成者</t>
   </si>
@@ -163,69 +163,97 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>customerLogin(
-mailAddress:String, 
-password:String)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>addCustomer(
-FormEmployeeRegister formEmployeeRegister)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次の引数でメソッドを実行
-fromEmployeeRegister{
-id:null
-name: "山田太郎"
-}</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>ヤマダタロウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次のデータを持つ顧客オブジェクトが顧客テーブルに登録できること</t>
-    <rPh sb="8" eb="10">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次の引数でメソッドを実行
-mailAddress:yamada@example.com
-password:passya,ada</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>返されたbooleanがtrueになっていること</t>
-    <rPh sb="0" eb="1">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectAll():List&lt;Customer&gt;</t>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客データの一覧が入手できること</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>registerCustomer(customer:CustomerForm):void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の引数でメソッドを実行
+aaaaa@aaaaa</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getCustomerByMailAddress(address:String):Customer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当のCustomerの情報が取得できること</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CustomerForm{
+        -customerName: 田中太郎
+        -customerNameKana: タナカタロウ
+        -customerAddress1: 東京
+        -customerAddress2: null
+        -customerPhoneNumber: 00-0000-0000
+        -customerMailAdress:taro@mail
+        -customerUserName: tarotaro
+        -customerPassword: tarotaro
+        -customerRegisterDate:now()
+    }</t>
+    <rPh sb="37" eb="41">
+      <t>タナカタロウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>customerテーブルに一件追加されていること</t>
+    <rPh sb="13" eb="15">
+      <t>イチケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -445,47 +473,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -839,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -858,25 +886,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,27 +915,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -945,20 +973,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -968,10 +996,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -980,84 +1008,82 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="42" customHeight="1">
+    <row r="7" spans="1:17" ht="123.5" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1067,6 +1093,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-CustomerService.xlsx
+++ b/plan/test/service/単体テスト仕様書-CustomerService.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF27649-5EC1-4EA6-93F6-905BEF73BDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E128760-DF79-4D60-BF6D-1529B4F9FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>作成者</t>
   </si>
@@ -254,6 +254,24 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -426,7 +444,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,10 +491,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,13 +533,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C6" zoomScale="109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -886,25 +910,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,23 +943,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -945,7 +969,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -973,20 +999,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -996,10 +1022,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1008,25 +1034,31 @@
       <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="31">
+        <v>45510</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1035,25 +1067,31 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="31">
+        <v>45510</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="123.5" customHeight="1">
       <c r="A7" s="11">
@@ -1062,28 +1100,38 @@
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1093,14 +1141,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
